--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW24.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW24.xlsx
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.447730088515063</v>
+        <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4954440915937704</v>
+        <v>0.0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5016</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.40636721808415677</v>
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4399672067655827</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5044338989959047</v>
+        <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.45483476186325017</v>
+        <v>0.0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4782270320052299</v>
+        <v>0.0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.47113588414906504</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.47963315235777815</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.48461398831832125</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -5537,37 +5537,37 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="n">
-        <v>0.25076920680226</v>
+        <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.25516413975671975</v>
+        <v>0.0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.24573333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2584692633474424</v>
+        <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2572028639947032</v>
+        <v>0.0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.26180041504152785</v>
+        <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.251225915049749</v>
+        <v>0.0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.21809423329270344</v>
+        <v>0.0</v>
       </c>
       <c r="J144" t="n">
-        <v>0.25310458030182226</v>
+        <v>0.0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.24826209537097907</v>
+        <v>0.0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.22397143276092207</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>0.46307066724829715</v>
+        <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.39086326693736634</v>
+        <v>0.0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.47814467340141853</v>
+        <v>0.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.46248217423080573</v>
+        <v>0.0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3992555320335809</v>
+        <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.46843055603687633</v>
+        <v>0.0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4646916578300463</v>
+        <v>0.0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.46368034621375076</v>
+        <v>0.0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.4531503343181463</v>
+        <v>0.0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.38744857839135083</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>0.24859959880021942</v>
+        <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.24727217277566538</v>
+        <v>0.0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2543563295712594</v>
+        <v>0.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.24870221745710402</v>
+        <v>0.0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.23520452203060208</v>
+        <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.24584174477158402</v>
+        <v>0.0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.24206736793652436</v>
+        <v>0.0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2085037407263699</v>
+        <v>0.0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.21867704045083422</v>
+        <v>0.0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.24219385446161198</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>2.749595437782378</v>
+        <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>3.240567372607344</v>
+        <v>0.0</v>
       </c>
       <c r="D206" t="n">
-        <v>3.2012460832278573</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>2.7824782753909965</v>
+        <v>0.0</v>
       </c>
       <c r="F206" t="n">
-        <v>2.7499606572556923</v>
+        <v>0.0</v>
       </c>
       <c r="G206" t="n">
-        <v>3.3824453241468015</v>
+        <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>2.757590872254111</v>
+        <v>0.0</v>
       </c>
       <c r="I206" t="n">
-        <v>3.0395558738678883</v>
+        <v>0.0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.8557420616146</v>
+        <v>0.0</v>
       </c>
       <c r="K206" t="n">
-        <v>3.121677770272534</v>
+        <v>0.0</v>
       </c>
       <c r="L206" t="n">
-        <v>2.6879018021776724</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>0.39589699318032706</v>
+        <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.4692185637032717</v>
+        <v>0.0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4600436420070778</v>
+        <v>0.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.3938482237027074</v>
+        <v>0.0</v>
       </c>
       <c r="G226" t="n">
-        <v>0.454969209686989</v>
+        <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>0.44078154050849455</v>
+        <v>0.0</v>
       </c>
       <c r="I226" t="n">
-        <v>0.3819671297105819</v>
+        <v>0.0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.4548045574151293</v>
+        <v>0.0</v>
       </c>
       <c r="K226" t="n">
-        <v>0.4663221530839592</v>
+        <v>0.0</v>
       </c>
       <c r="L226" t="n">
-        <v>0.39269233930731884</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.5863042085869155</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1.7138045978350738</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1.6367999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>1.6259438647536766</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.5845143421917138</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>1.6724997671391908</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>1.6397509619530009</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>1.4720697722505</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.4067845940048902</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>1.3727374746546257</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>1.6336437372840902</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2.017340663759235</v>
+        <v>0.0</v>
       </c>
       <c r="C336" t="n">
-        <v>1.9042968656390349</v>
+        <v>0.0</v>
       </c>
       <c r="D336" t="n">
-        <v>1.7913260578534356</v>
+        <v>0.0</v>
       </c>
       <c r="E336" t="n">
-        <v>1.9984019906675083</v>
+        <v>0.0</v>
       </c>
       <c r="F336" t="n">
-        <v>2.028370968557646</v>
+        <v>0.0</v>
       </c>
       <c r="G336" t="n">
-        <v>1.9312264928676457</v>
+        <v>0.0</v>
       </c>
       <c r="H336" t="n">
-        <v>2.0342644019946534</v>
+        <v>0.0</v>
       </c>
       <c r="I336" t="n">
-        <v>2.139643587641756</v>
+        <v>0.0</v>
       </c>
       <c r="J336" t="n">
-        <v>1.9691983167473077</v>
+        <v>0.0</v>
       </c>
       <c r="K336" t="n">
-        <v>2.0352194599597837</v>
+        <v>0.0</v>
       </c>
       <c r="L336" t="n">
-        <v>2.0417120224158363</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="337">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>1.311651115306485</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>1.1079528697536671</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="n">
-        <v>1.2976671264707065</v>
+        <v>0.0</v>
       </c>
       <c r="E408" t="n">
-        <v>1.2903413003976365</v>
+        <v>0.0</v>
       </c>
       <c r="F408" t="n">
-        <v>1.3114454007415068</v>
+        <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>1.2437287505863366</v>
+        <v>0.0</v>
       </c>
       <c r="H408" t="n">
-        <v>1.100586098045667</v>
+        <v>0.0</v>
       </c>
       <c r="I408" t="n">
-        <v>1.3007178403043338</v>
+        <v>0.0</v>
       </c>
       <c r="J408" t="n">
-        <v>1.1084271543769333</v>
+        <v>0.0</v>
       </c>
       <c r="K408" t="n">
-        <v>1.2505231696071881</v>
+        <v>0.0</v>
       </c>
       <c r="L408" t="n">
-        <v>1.2932604808822197</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>0.7596698691279037</v>
+        <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.820728904015157</v>
+        <v>0.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.783851946592389</v>
+        <v>0.0</v>
       </c>
       <c r="E467" t="n">
-        <v>0.7786530201839696</v>
+        <v>0.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.7588127147669438</v>
+        <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.8009483126511315</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="n">
-        <v>0.7852651414061596</v>
+        <v>0.0</v>
       </c>
       <c r="I467" t="n">
-        <v>0.7049638052898151</v>
+        <v>0.0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.6736991950433264</v>
+        <v>0.0</v>
       </c>
       <c r="K467" t="n">
-        <v>0.6573942703252375</v>
+        <v>0.0</v>
       </c>
       <c r="L467" t="n">
-        <v>0.7823404346948921</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -21345,37 +21345,37 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>1.3369294403986611</v>
+        <v>0.0</v>
       </c>
       <c r="C560" t="n">
-        <v>1.2620131982009997</v>
+        <v>0.0</v>
       </c>
       <c r="D560" t="n">
-        <v>1.1871453280651048</v>
+        <v>0.0</v>
       </c>
       <c r="E560" t="n">
-        <v>1.3243784270406926</v>
+        <v>0.0</v>
       </c>
       <c r="F560" t="n">
-        <v>1.3442394299737912</v>
+        <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>1.2798599665270793</v>
+        <v>0.0</v>
       </c>
       <c r="H560" t="n">
-        <v>1.3481451186898867</v>
+        <v>0.0</v>
       </c>
       <c r="I560" t="n">
-        <v>1.4179818786520415</v>
+        <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>1.3050246053817551</v>
+        <v>0.0</v>
       </c>
       <c r="K560" t="n">
-        <v>1.348778053490542</v>
+        <v>0.0</v>
       </c>
       <c r="L560" t="n">
-        <v>1.3530807962285725</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4075546939930968</v>
+        <v>0.0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.34426181438172926</v>
+        <v>0.0</v>
       </c>
       <c r="D583" t="n">
-        <v>0.4032096054064593</v>
+        <v>0.0</v>
       </c>
       <c r="E583" t="n">
-        <v>0.40093333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F583" t="n">
-        <v>0.4074907746050818</v>
+        <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>0.38644993660314153</v>
+        <v>0.0</v>
       </c>
       <c r="H583" t="n">
-        <v>0.34197281972900906</v>
+        <v>0.0</v>
       </c>
       <c r="I583" t="n">
-        <v>0.4041575196257325</v>
+        <v>0.0</v>
       </c>
       <c r="J583" t="n">
-        <v>0.3444091835428157</v>
+        <v>0.0</v>
       </c>
       <c r="K583" t="n">
-        <v>0.38856109050114823</v>
+        <v>0.0</v>
       </c>
       <c r="L583" t="n">
-        <v>0.40184037766487946</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -22941,37 +22941,37 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>0.34147179212953216</v>
+        <v>0.0</v>
       </c>
       <c r="C602" t="n">
-        <v>0.40471361644118475</v>
+        <v>0.0</v>
       </c>
       <c r="D602" t="n">
-        <v>0.3386855487309096</v>
+        <v>0.0</v>
       </c>
       <c r="E602" t="n">
-        <v>0.3968</v>
+        <v>0.0</v>
       </c>
       <c r="F602" t="n">
-        <v>0.339704673416245</v>
+        <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>0.39242316580264736</v>
+        <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>0.38018591999382473</v>
+        <v>0.0</v>
       </c>
       <c r="I602" t="n">
-        <v>0.3294569106702861</v>
+        <v>0.0</v>
       </c>
       <c r="J602" t="n">
-        <v>0.3922811487948937</v>
+        <v>0.0</v>
       </c>
       <c r="K602" t="n">
-        <v>0.40221538447186755</v>
+        <v>0.0</v>
       </c>
       <c r="L602" t="n">
-        <v>0.33870769207315077</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>4.758912625760747</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>5.1414137935052215</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>4.9104</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>4.87783159426103</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>4.753543026575142</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>5.017499301417573</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>4.919252885859002</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>4.416209316751501</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>4.220353782014671</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>4.118212423963877</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>4.900931211852271</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
